--- a/6月实训/6.30/营业额.xlsx
+++ b/6月实训/6.30/营业额.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>月份</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>十二月</t>
+  </si>
+  <si>
+    <t>总收入</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,6 +526,14 @@
         <v>1526</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>54997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
